--- a/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
+++ b/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31F2EE-8CEE-41F2-8A03-128B250D2CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3ADFA-EDEF-4C7D-8A13-6FC8CBD5FED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="200">
   <si>
     <t>OH</t>
   </si>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:L1049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2159,9 +2159,7 @@
       <c r="D31" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>190</v>
-      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="31">
         <v>20.54</v>
       </c>

--- a/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
+++ b/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3ADFA-EDEF-4C7D-8A13-6FC8CBD5FED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A685654-E1A5-4A96-8A19-62078AD79D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,6 @@
     <t>⚡</t>
   </si>
   <si>
-    <t>🏆 🥇 ⚡</t>
-  </si>
-  <si>
     <t>🥉 ⚡</t>
   </si>
   <si>
@@ -625,12 +622,15 @@
   <si>
     <t>🥉</t>
   </si>
+  <si>
+    <t>🏆 🥈 ⚡</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -734,14 +734,20 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155CC"/>
+      <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -758,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -766,11 +772,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,33 +916,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,7 +1160,7 @@
   </sheetPr>
   <dimension ref="A1:L1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1259,7 @@
         <v>12.74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="21">
         <v>14.5</v>
@@ -1273,7 +1294,7 @@
         <v>14.46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F5" s="21">
         <v>13.82</v>
@@ -1376,7 +1397,7 @@
         <v>15.23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="21">
         <v>14.64</v>
@@ -1572,7 +1593,7 @@
       <c r="A14" s="23">
         <v>11</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="55" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -10624,7 +10645,7 @@
         <v>25.73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="19">
         <v>22.13</v>
@@ -10659,7 +10680,7 @@
         <v>27.32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="19">
         <v>23.86</v>
@@ -10764,7 +10785,7 @@
         <v>37.28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="19">
         <v>37.57</v>
@@ -17519,7 +17540,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>22</v>
@@ -17554,7 +17575,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>34</v>
@@ -17624,7 +17645,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>56</v>
@@ -24224,8 +24245,8 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -24245,12 +24266,12 @@
       <c r="A1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="6" t="s">
         <v>181</v>
       </c>
@@ -24271,7 +24292,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75">
+    <row r="3" spans="1:12" ht="13.5" thickBot="1">
       <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
@@ -24297,23 +24318,23 @@
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="48">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="58">
         <v>1</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50">
-        <v>27</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="60">
+        <v>26</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="27"/>
@@ -24321,23 +24342,23 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="48">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="58">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="50">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="B5" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="60">
+        <v>27</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G5" s="27"/>
@@ -24345,21 +24366,23 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="48">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="50">
-        <v>33</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
+      <c r="D6" s="60">
+        <v>29</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="27"/>
@@ -24367,23 +24390,21 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="48">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="58">
         <v>4</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="50">
-        <v>41</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="60">
+        <v>33</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G7" s="27"/>
@@ -24391,23 +24412,23 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="48">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="58">
         <v>5</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="50">
-        <v>42</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="52" t="s">
+      <c r="B8" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="60">
+        <v>41</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="27"/>
@@ -24415,20 +24436,21 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75">
-      <c r="A9" s="48">
+    <row r="9" spans="1:12" ht="26.25" thickBot="1">
+      <c r="A9" s="58">
         <v>6</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="60">
         <v>47</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G9" s="27"/>
@@ -24436,23 +24458,23 @@
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="48">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="58">
         <v>7</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="60">
         <v>55</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="52" t="s">
+      <c r="E10" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="27"/>
@@ -24462,23 +24484,23 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="48"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="58"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="60"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -30839,14 +30861,15 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{1BF9B10B-F47E-4833-9FB3-010969673BDD}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{6EC1C15E-56F9-4279-950B-13A735EE3179}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{D8707D4F-E965-46F4-9EDD-BE22F60A9102}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{167B3E3C-449C-4A3F-976E-01530B5EF49A}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{16442B01-EBE6-45E6-BE93-3F94DCE84104}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{B224505A-B757-4AB8-AF0B-5E82D380BB5F}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{16C9B4A4-B527-4887-89DD-ABD32E55A0E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
+++ b/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A685654-E1A5-4A96-8A19-62078AD79D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49BA86E-93EE-4355-AE59-654492B33768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="201">
   <si>
     <t>OH</t>
   </si>
@@ -623,7 +623,10 @@
     <t>🥉</t>
   </si>
   <si>
-    <t>🏆 🥈 ⚡</t>
+    <t>🥈 ⚡</t>
+  </si>
+  <si>
+    <t>🏆 🥇</t>
   </si>
 </sst>
 </file>
@@ -925,8 +928,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -939,6 +940,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -24246,7 +24249,7 @@
   <dimension ref="A1:L1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -24266,12 +24269,12 @@
       <c r="A1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="6" t="s">
         <v>181</v>
       </c>
@@ -24319,22 +24322,22 @@
       <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="58">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="58">
         <v>26</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="61" t="s">
+      <c r="E4" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="27"/>
@@ -24343,22 +24346,22 @@
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="58">
+      <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="58">
         <v>27</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G5" s="27"/>
@@ -24367,22 +24370,22 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="58">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="58">
         <v>29</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="27"/>
@@ -24391,20 +24394,20 @@
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="58">
+      <c r="A7" s="56">
         <v>4</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="58">
         <v>33</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G7" s="27"/>
@@ -24413,22 +24416,22 @@
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="58">
+      <c r="A8" s="56">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="58">
         <v>41</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="27"/>
@@ -24437,20 +24440,20 @@
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A9" s="58">
+      <c r="A9" s="56">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="58">
         <v>47</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="61" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G9" s="27"/>
@@ -24459,22 +24462,22 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="58">
+      <c r="A10" s="56">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <v>55</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="59" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="27"/>

--- a/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
+++ b/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49BA86E-93EE-4355-AE59-654492B33768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA227D7-D9C0-4005-B728-88D5D094B3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="196">
   <si>
     <t>OH</t>
   </si>
@@ -539,24 +539,6 @@
     <t>https://www.facebook.com/events/2558750947697073/permalink/2564174693821365/</t>
   </si>
   <si>
-    <t>1:18.00</t>
-  </si>
-  <si>
-    <t>1:10.00</t>
-  </si>
-  <si>
-    <t>1:40.00</t>
-  </si>
-  <si>
-    <t>1:01.00</t>
-  </si>
-  <si>
-    <t>1:13.00</t>
-  </si>
-  <si>
-    <t>1:32.00</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/2558750947697073/permalink/2563869620518539/</t>
   </si>
   <si>
@@ -627,6 +609,9 @@
   </si>
   <si>
     <t>🏆 🥇</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/2558750947697073/permalink/2564590157113152/</t>
   </si>
 </sst>
 </file>
@@ -795,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,6 +925,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1161,10 +1147,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1049"/>
+  <dimension ref="A1:L1050"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1262,7 +1248,7 @@
         <v>12.74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F4" s="21">
         <v>14.5</v>
@@ -1297,7 +1283,7 @@
         <v>14.46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F5" s="21">
         <v>13.82</v>
@@ -1365,7 +1351,7 @@
         <v>14.97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F7" s="25">
         <v>13.2</v>
@@ -1400,7 +1386,7 @@
         <v>15.23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F8" s="21">
         <v>14.64</v>
@@ -1435,7 +1421,7 @@
         <v>16.63</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F9" s="21">
         <v>18.3</v>
@@ -1470,7 +1456,7 @@
         <v>17.7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" s="21">
         <v>14.08</v>
@@ -1606,7 +1592,7 @@
         <v>21.21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F14" s="21">
         <v>18.43</v>
@@ -1641,7 +1627,7 @@
         <v>21.98</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F15" s="21">
         <v>24.1</v>
@@ -1676,7 +1662,7 @@
         <v>22.85</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F16" s="21">
         <v>19.38</v>
@@ -1697,37 +1683,39 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75">
+    <row r="17" spans="1:11" s="60" customFormat="1" ht="12.75">
       <c r="A17" s="23">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>31</v>
+      <c r="B17" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="21">
-        <v>26.07</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>25.65</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="F17" s="21">
-        <v>24.59</v>
+        <v>21.03</v>
       </c>
       <c r="G17" s="21">
-        <v>26.26</v>
+        <v>24.45</v>
       </c>
       <c r="H17" s="21">
-        <v>19.79</v>
+        <v>25.4</v>
       </c>
       <c r="I17" s="21">
-        <v>29.1</v>
+        <v>28.19</v>
       </c>
       <c r="J17" s="21">
-        <v>27.36</v>
+        <v>29.2</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -1735,34 +1723,32 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="21">
-        <v>26.97</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>26.07</v>
+      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="21">
-        <v>28.58</v>
+        <v>24.59</v>
       </c>
       <c r="G18" s="21">
-        <v>24.11</v>
+        <v>26.26</v>
       </c>
       <c r="H18" s="21">
-        <v>24.04</v>
+        <v>19.79</v>
       </c>
       <c r="I18" s="21">
-        <v>34.229999999999997</v>
+        <v>29.1</v>
       </c>
       <c r="J18" s="21">
-        <v>28.22</v>
+        <v>27.36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1770,98 +1756,100 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D19" s="21">
-        <v>27.36</v>
-      </c>
-      <c r="E19" s="15"/>
+        <v>26.97</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="21">
-        <v>25.22</v>
+        <v>28.58</v>
       </c>
       <c r="G19" s="21">
-        <v>28.54</v>
+        <v>24.11</v>
       </c>
       <c r="H19" s="21">
-        <v>22.85</v>
+        <v>24.04</v>
       </c>
       <c r="I19" s="21">
-        <v>28.32</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="J19" s="21">
-        <v>37.68</v>
+        <v>28.22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
       <c r="A20" s="23">
         <v>17</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="25">
-        <v>28.03</v>
+      <c r="B20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="21">
+        <v>27.36</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="25">
-        <v>29.48</v>
-      </c>
-      <c r="G20" s="25">
-        <v>26.59</v>
-      </c>
-      <c r="H20" s="25">
-        <v>24.28</v>
-      </c>
-      <c r="I20" s="25">
-        <v>30.77</v>
-      </c>
-      <c r="J20" s="25">
-        <v>28.01</v>
+      <c r="F20" s="21">
+        <v>25.22</v>
+      </c>
+      <c r="G20" s="21">
+        <v>28.54</v>
+      </c>
+      <c r="H20" s="21">
+        <v>22.85</v>
+      </c>
+      <c r="I20" s="21">
+        <v>28.32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>37.68</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
       <c r="A21" s="23">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="21">
-        <v>28.08</v>
+      <c r="B21" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="25">
+        <v>28.03</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="21">
-        <v>27.64</v>
-      </c>
-      <c r="G21" s="21">
-        <v>30.36</v>
-      </c>
-      <c r="H21" s="21">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="I21" s="21">
-        <v>26.23</v>
-      </c>
-      <c r="J21" s="21">
-        <v>30.93</v>
+      <c r="F21" s="25">
+        <v>29.48</v>
+      </c>
+      <c r="G21" s="25">
+        <v>26.59</v>
+      </c>
+      <c r="H21" s="25">
+        <v>24.28</v>
+      </c>
+      <c r="I21" s="25">
+        <v>30.77</v>
+      </c>
+      <c r="J21" s="25">
+        <v>28.01</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1869,34 +1857,32 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D22" s="21">
-        <v>28.66</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>190</v>
-      </c>
+        <v>28.08</v>
+      </c>
+      <c r="E22" s="15"/>
       <c r="F22" s="21">
-        <v>29.45</v>
+        <v>27.64</v>
       </c>
       <c r="G22" s="21">
-        <v>28.55</v>
+        <v>30.36</v>
       </c>
       <c r="H22" s="21">
-        <v>30.21</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="I22" s="21">
-        <v>22.87</v>
+        <v>26.23</v>
       </c>
       <c r="J22" s="21">
-        <v>27.97</v>
+        <v>30.93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1904,34 +1890,34 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D23" s="21">
-        <v>30.91</v>
+        <v>28.66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F23" s="21">
-        <v>32.950000000000003</v>
+        <v>29.45</v>
       </c>
       <c r="G23" s="21">
-        <v>30.91</v>
+        <v>28.55</v>
       </c>
       <c r="H23" s="21">
-        <v>25.6</v>
+        <v>30.21</v>
       </c>
       <c r="I23" s="21">
-        <v>29.64</v>
+        <v>22.87</v>
       </c>
       <c r="J23" s="21">
-        <v>32.19</v>
+        <v>27.97</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1939,32 +1925,34 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="21">
-        <v>32.58</v>
-      </c>
-      <c r="E24" s="15"/>
+        <v>30.91</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="F24" s="21">
-        <v>28.19</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="G24" s="21">
-        <v>38.520000000000003</v>
+        <v>30.91</v>
       </c>
       <c r="H24" s="21">
-        <v>32.450000000000003</v>
+        <v>25.6</v>
       </c>
       <c r="I24" s="21">
-        <v>34.630000000000003</v>
+        <v>29.64</v>
       </c>
       <c r="J24" s="21">
-        <v>30.67</v>
+        <v>32.19</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1972,66 +1960,64 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="17">
-        <v>34.14</v>
-      </c>
-      <c r="F25" s="17">
-        <v>34.68</v>
-      </c>
-      <c r="G25" s="17">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="H25" s="17">
-        <v>32.79</v>
-      </c>
-      <c r="I25" s="17">
-        <v>41.22</v>
-      </c>
-      <c r="J25" s="17">
-        <v>34.72</v>
+        <v>65</v>
+      </c>
+      <c r="D25" s="21">
+        <v>32.58</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="21">
+        <v>28.19</v>
+      </c>
+      <c r="G25" s="21">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="H25" s="21">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="I25" s="21">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="J25" s="21">
+        <v>30.67</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
       <c r="A26" s="23">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="19">
-        <v>34.840000000000003</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="19">
-        <v>30.53</v>
-      </c>
-      <c r="G26" s="19">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="H26" s="19">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="I26" s="19">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="J26" s="19">
-        <v>31.2</v>
+      <c r="B26" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="17">
+        <v>34.14</v>
+      </c>
+      <c r="F26" s="17">
+        <v>34.68</v>
+      </c>
+      <c r="G26" s="17">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="H26" s="17">
+        <v>32.79</v>
+      </c>
+      <c r="I26" s="17">
+        <v>41.22</v>
+      </c>
+      <c r="J26" s="17">
+        <v>34.72</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -2039,69 +2025,69 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D27" s="19">
-        <v>36.590000000000003</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="31">
-        <v>38.68</v>
+        <v>34.840000000000003</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="19">
+        <v>30.53</v>
       </c>
       <c r="G27" s="19">
-        <v>38.11</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="H27" s="19">
-        <v>32.97</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="I27" s="19">
-        <v>44.39</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="J27" s="19">
-        <v>31.64</v>
+        <v>31.2</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
       <c r="A28" s="23">
         <v>25</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="27">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="E28" s="37" t="s">
+      <c r="B28" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="19">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="31">
-        <v>38.44</v>
-      </c>
-      <c r="G28" s="27">
-        <v>37.79</v>
-      </c>
-      <c r="H28" s="27">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="I28" s="27">
-        <v>39.67</v>
-      </c>
-      <c r="J28" s="27">
-        <v>39.840000000000003</v>
+        <v>38.68</v>
+      </c>
+      <c r="G28" s="19">
+        <v>38.11</v>
+      </c>
+      <c r="H28" s="19">
+        <v>32.97</v>
+      </c>
+      <c r="I28" s="19">
+        <v>44.39</v>
+      </c>
+      <c r="J28" s="19">
+        <v>31.64</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -2109,32 +2095,34 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="40">
-        <v>40.14</v>
-      </c>
-      <c r="E29" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="D29" s="27">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="F29" s="31">
-        <v>44.27</v>
+        <v>38.44</v>
       </c>
       <c r="G29" s="27">
-        <v>43.17</v>
+        <v>37.79</v>
       </c>
       <c r="H29" s="27">
-        <v>38.549999999999997</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="I29" s="27">
-        <v>39.229999999999997</v>
+        <v>39.67</v>
       </c>
       <c r="J29" s="27">
-        <v>40.14</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -2142,32 +2130,32 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>171</v>
+      <c r="D30" s="40">
+        <v>40.14</v>
       </c>
       <c r="E30" s="30"/>
-      <c r="F30" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>176</v>
+      <c r="F30" s="31">
+        <v>44.27</v>
+      </c>
+      <c r="G30" s="27">
+        <v>43.17</v>
+      </c>
+      <c r="H30" s="27">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="I30" s="27">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="J30" s="27">
+        <v>40.14</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -2175,52 +2163,73 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="40">
+        <v>78</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31">
+        <v>70</v>
+      </c>
+      <c r="G31" s="27">
+        <v>100</v>
+      </c>
+      <c r="H31" s="27">
+        <v>61</v>
+      </c>
+      <c r="I31" s="27">
+        <v>73</v>
+      </c>
+      <c r="J31" s="27">
+        <v>92</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75">
+      <c r="A32" s="23">
+        <v>29</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="31">
+      <c r="E32" s="12"/>
+      <c r="F32" s="31">
         <v>20.54</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G32" s="27">
         <v>19.62</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H32" s="27">
         <v>22.31</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="12.75">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="K32" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
       <c r="A33" s="14"/>
       <c r="B33" s="16"/>
       <c r="C33" s="14"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="30"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="31"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -2244,7 +2253,7 @@
       <c r="B35" s="16"/>
       <c r="C35" s="14"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="28"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="31"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -2292,7 +2301,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="14"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="30"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="31"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
@@ -2389,7 +2398,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="19"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2409,10 +2418,11 @@
     </row>
     <row r="49" spans="1:10" ht="12.75">
       <c r="A49" s="14"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="14"/>
       <c r="D49" s="19"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="16"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2420,11 +2430,10 @@
     </row>
     <row r="50" spans="1:10" ht="12.75">
       <c r="A50" s="14"/>
-      <c r="B50" s="16"/>
       <c r="C50" s="14"/>
       <c r="D50" s="19"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="19"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2443,7 +2452,7 @@
       <c r="J51" s="19"/>
     </row>
     <row r="52" spans="1:10" ht="12.75">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="16"/>
       <c r="C52" s="14"/>
       <c r="D52" s="19"/>
@@ -2479,7 +2488,7 @@
       <c r="J54" s="19"/>
     </row>
     <row r="55" spans="1:10" ht="12.75">
-      <c r="A55" s="14"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="14"/>
       <c r="D55" s="19"/>
@@ -2506,7 +2515,7 @@
       <c r="A57" s="14"/>
       <c r="B57" s="16"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="30"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -2514,27 +2523,27 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" ht="14.25">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:10" ht="12.75">
+      <c r="A58" s="14"/>
       <c r="B58" s="16"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:10" ht="14.25">
+      <c r="A59" s="37"/>
       <c r="B59" s="16"/>
       <c r="C59" s="14"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
@@ -2543,10 +2552,10 @@
       <c r="B60" s="16"/>
       <c r="C60" s="14"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
     </row>
@@ -2556,7 +2565,7 @@
       <c r="C61" s="14"/>
       <c r="D61" s="19"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="34"/>
+      <c r="F61" s="36"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="19"/>
@@ -2567,10 +2576,10 @@
       <c r="B62" s="16"/>
       <c r="C62" s="14"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
@@ -2591,10 +2600,10 @@
       <c r="B64" s="16"/>
       <c r="C64" s="14"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
     </row>
@@ -2615,10 +2624,10 @@
       <c r="B66" s="16"/>
       <c r="C66" s="14"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
     </row>
@@ -2651,10 +2660,10 @@
       <c r="B69" s="16"/>
       <c r="C69" s="14"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
     </row>
@@ -2663,10 +2672,10 @@
       <c r="B70" s="16"/>
       <c r="C70" s="14"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
     </row>
@@ -2675,20 +2684,24 @@
       <c r="B71" s="16"/>
       <c r="C71" s="14"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" ht="12.75">
-      <c r="A72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:10" ht="12.75">
       <c r="A73" s="37"/>
@@ -10505,6 +10518,14 @@
       <c r="F1049" s="39"/>
       <c r="G1049" s="39"/>
       <c r="H1049" s="39"/>
+    </row>
+    <row r="1050" spans="1:8" ht="12.75">
+      <c r="A1050" s="37"/>
+      <c r="C1050" s="37"/>
+      <c r="E1050" s="37"/>
+      <c r="F1050" s="39"/>
+      <c r="G1050" s="39"/>
+      <c r="H1050" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10521,24 +10542,9 @@
     <hyperlink ref="K14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="K15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="K16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -10648,7 +10654,7 @@
         <v>25.73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F4" s="19">
         <v>22.13</v>
@@ -10683,7 +10689,7 @@
         <v>27.32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F5" s="19">
         <v>23.86</v>
@@ -10753,7 +10759,7 @@
         <v>35.44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F7" s="19">
         <v>46.11</v>
@@ -10788,7 +10794,7 @@
         <v>37.28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F8" s="19">
         <v>37.57</v>
@@ -17543,7 +17549,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>22</v>
@@ -17578,7 +17584,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>34</v>
@@ -17613,7 +17619,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>46</v>
@@ -17648,7 +17654,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>56</v>
@@ -24248,7 +24254,7 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -24267,16 +24273,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -24306,13 +24312,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -24335,10 +24341,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -24350,7 +24356,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>31</v>
@@ -24359,10 +24365,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -24383,10 +24389,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -24398,7 +24404,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>20</v>
@@ -24408,7 +24414,7 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -24429,10 +24435,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -24444,7 +24450,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>20</v>
@@ -24454,7 +24460,7 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -24466,7 +24472,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>65</v>
@@ -24475,10 +24481,10 @@
         <v>55</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>

--- a/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
+++ b/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA227D7-D9C0-4005-B728-88D5D094B3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F37AF5-DE38-4EB2-9427-BDFC7CAD078E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="195">
   <si>
     <t>OH</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>2:39.00</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>https://www.facebook.com/events/2558750947697073/permalink/2564295957142572/</t>
@@ -1149,7 +1146,7 @@
   </sheetPr>
   <dimension ref="A1:L1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1248,7 +1245,7 @@
         <v>12.74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="21">
         <v>14.5</v>
@@ -1283,7 +1280,7 @@
         <v>14.46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="21">
         <v>13.82</v>
@@ -1351,7 +1348,7 @@
         <v>14.97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="25">
         <v>13.2</v>
@@ -1386,7 +1383,7 @@
         <v>15.23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="21">
         <v>14.64</v>
@@ -1421,7 +1418,7 @@
         <v>16.63</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="21">
         <v>18.3</v>
@@ -1456,7 +1453,7 @@
         <v>17.7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="21">
         <v>14.08</v>
@@ -1575,7 +1572,7 @@
         <v>22.04</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -1592,7 +1589,7 @@
         <v>21.21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="21">
         <v>18.43</v>
@@ -1610,7 +1607,7 @@
         <v>21.62</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -1627,7 +1624,7 @@
         <v>21.98</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="21">
         <v>24.1</v>
@@ -1645,7 +1642,7 @@
         <v>29.96</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -1662,7 +1659,7 @@
         <v>22.85</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="21">
         <v>19.38</v>
@@ -1680,7 +1677,7 @@
         <v>46.02</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="60" customFormat="1" ht="12.75">
@@ -1697,7 +1694,7 @@
         <v>25.65</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="21">
         <v>21.03</v>
@@ -1715,7 +1712,7 @@
         <v>29.2</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -1748,7 +1745,7 @@
         <v>27.36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1756,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
@@ -1783,7 +1780,7 @@
         <v>28.22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -1791,7 +1788,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>20</v>
@@ -1816,7 +1813,7 @@
         <v>37.68</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1824,7 +1821,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>65</v>
@@ -1849,7 +1846,7 @@
         <v>28.01</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1882,7 +1879,7 @@
         <v>30.93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1890,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>20</v>
@@ -1899,7 +1896,7 @@
         <v>28.66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="21">
         <v>29.45</v>
@@ -1917,7 +1914,7 @@
         <v>27.97</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1925,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>65</v>
@@ -1934,7 +1931,7 @@
         <v>30.91</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="21">
         <v>32.950000000000003</v>
@@ -1952,7 +1949,7 @@
         <v>32.19</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1985,7 +1982,7 @@
         <v>30.67</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -1993,7 +1990,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>31</v>
@@ -2017,7 +2014,7 @@
         <v>34.72</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -2025,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>65</v>
@@ -2034,7 +2031,7 @@
         <v>34.840000000000003</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="19">
         <v>30.53</v>
@@ -2052,7 +2049,7 @@
         <v>31.2</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -2060,7 +2057,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>31</v>
@@ -2087,7 +2084,7 @@
         <v>31.64</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -2095,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>65</v>
@@ -2122,7 +2119,7 @@
         <v>39.840000000000003</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -2130,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>31</v>
@@ -2155,7 +2152,7 @@
         <v>40.14</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -2188,7 +2185,7 @@
         <v>92</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -2196,7 +2193,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>31</v>
@@ -2221,7 +2218,7 @@
         <v>41</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
@@ -10556,7 +10553,7 @@
   <dimension ref="A1:L1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10654,7 +10651,7 @@
         <v>25.73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="19">
         <v>22.13</v>
@@ -10689,7 +10686,7 @@
         <v>27.32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="19">
         <v>23.86</v>
@@ -10759,7 +10756,7 @@
         <v>35.44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="19">
         <v>46.11</v>
@@ -10794,7 +10791,7 @@
         <v>37.28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="19">
         <v>37.57</v>
@@ -11065,14 +11062,14 @@
       <c r="H16" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>142</v>
+      <c r="I16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75">
@@ -17549,7 +17546,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>22</v>
@@ -17584,7 +17581,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>34</v>
@@ -17619,7 +17616,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>46</v>
@@ -17654,7 +17651,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>56</v>
@@ -24254,7 +24251,7 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -24273,7 +24270,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>1</v>
@@ -24282,7 +24279,7 @@
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -24312,13 +24309,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="44" t="s">
         <v>177</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>178</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -24341,10 +24338,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -24356,7 +24353,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>31</v>
@@ -24365,10 +24362,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -24389,10 +24386,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -24404,7 +24401,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>20</v>
@@ -24414,7 +24411,7 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -24426,7 +24423,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>20</v>
@@ -24435,10 +24432,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -24450,7 +24447,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>20</v>
@@ -24460,7 +24457,7 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -24472,7 +24469,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>65</v>
@@ -24481,10 +24478,10 @@
         <v>55</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>

--- a/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
+++ b/data/2020-02-24/Senior Cubers Worldwide - Weekly Competition - 2020-02-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F37AF5-DE38-4EB2-9427-BDFC7CAD078E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33EA93-148C-494D-9795-279253622941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="196">
   <si>
     <t>OH</t>
   </si>
@@ -610,6 +610,9 @@
   <si>
     <t>https://www.facebook.com/events/2558750947697073/permalink/2564590157113152/</t>
   </si>
+  <si>
+    <t>2:27.00</t>
+  </si>
 </sst>
 </file>
 
@@ -777,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -923,6 +926,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -10553,7 +10559,7 @@
   <dimension ref="A1:L1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11049,8 +11055,8 @@
       <c r="C16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>139</v>
+      <c r="D16" s="61" t="s">
+        <v>195</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="27" t="s">
@@ -17447,8 +17453,8 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -17880,7 +17886,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="27" t="s">
@@ -24251,7 +24257,7 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -24272,12 +24278,12 @@
       <c r="A1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="6" t="s">
         <v>174</v>
       </c>
